--- a/biology/Histoire de la zoologie et de la botanique/Société_d'entomologie_d'Amérique/Société_d'entomologie_d'Amérique.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Société_d'entomologie_d'Amérique/Société_d'entomologie_d'Amérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_d%27entomologie_d%27Am%C3%A9rique</t>
+          <t>Société_d'entomologie_d'Amérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société américaine d'entomologie (en anglais Entomological Society of America, ESA) est la plus grande société savante consacrée à l’entomologie au monde. Elle a été fondée en 1889 et regroupe aujourd’hui plus de 5 700 membres, principalement des entomologistes professionnels travaillant pour le ministère de l’agriculture américain, les universités ou divers centres de recherche privés.
 Ses quartiers généraux sont situés à Lanham, une banlieue de Washington dans le Maryland. Chaque année, un congrès réunit 2 000 entomologistes et d’autres scientifiques.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_d%27entomologie_d%27Am%C3%A9rique</t>
+          <t>Société_d'entomologie_d'Amérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1889, l'Association américaine des entomologistes économiques a été fondée par Charles V. Riley, axé principalement sur l'entomologie économique. En 1906, l'Entomological Society of America a été créée pour répondre aux besoins des dimensions plus larges de la biologie, de la taxonomie, de la morphologie et des études faunistiques des insectes.
 </t>
